--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1800962.949724739</v>
+        <v>-1802913.1755533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>387.7413325106123</v>
       </c>
       <c r="H2" t="n">
-        <v>132.0856012685696</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>126.6247065458355</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.985757550887361</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.0882502601224</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>14.07579442944628</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>230.9245405976646</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>71.19517843009956</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.032773951870699</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>164.7314984317826</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>62.35832214707636</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>73.14545946815413</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.27833349215661</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.94930828107877</v>
+        <v>137.0992430340775</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>123.3771255379762</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>281.1484359425172</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.16960696316943</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>45.37449962547137</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0.2617361482153819</v>
       </c>
       <c r="S22" t="n">
-        <v>116.3024193229322</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>73.21532344290709</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692886</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857158</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.042877423226</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C2" t="n">
-        <v>1110.080360482814</v>
+        <v>803.8665920539961</v>
       </c>
       <c r="D2" t="n">
-        <v>751.8146618760638</v>
+        <v>445.6008934472456</v>
       </c>
       <c r="E2" t="n">
-        <v>751.8146618760638</v>
+        <v>445.6008934472456</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8287570864562</v>
+        <v>445.6008934472456</v>
       </c>
       <c r="G2" t="n">
-        <v>340.8287570864562</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1865.642717487348</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1865.642717487348</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C4" t="n">
-        <v>407.4645182330357</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="U4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="V4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="W4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="X4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="Y4" t="n">
-        <v>576.4007011609426</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>997.2466063457011</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>628.2840894052895</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>628.2840894052895</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>242.4958368070452</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>235.5503360578418</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>221.6269319964327</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.846446409823</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.2146625598692</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>487.2784796319623</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>656.2146625598692</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>656.2146625598692</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>656.2146625598692</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>656.2146625598692</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="W7" t="n">
-        <v>656.2146625598692</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="X7" t="n">
-        <v>656.2146625598692</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.2146625598692</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.346874905661</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C8" t="n">
-        <v>1099.346874905661</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.346874905661</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.346874905661</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>688.360970116054</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>270.3971620142408</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.946714969783</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.946714969783</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272.8312459770189</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C10" t="n">
-        <v>272.8312459770189</v>
+        <v>411.0461427127116</v>
       </c>
       <c r="D10" t="n">
-        <v>272.8312459770189</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>272.8312459770189</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>125.9412984791085</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>125.9412984791085</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770189</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.8312459770189</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609741</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.3431626812556</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.8404505895548</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5467,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>991.1425362135525</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>736.4580480076656</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>447.040877970705</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>360.5132282547778</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>360.5132282547778</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>360.5132282547778</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.954803866944</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>874.5376338299834</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X19" t="n">
-        <v>646.5480829319661</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.7555037884359</v>
+        <v>360.5132282547778</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>505.7582697485844</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C22" t="n">
-        <v>505.7582697485844</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.65189061021</v>
       </c>
       <c r="S22" t="n">
-        <v>1270.363975884443</v>
+        <v>1498.65189061021</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.363975884443</v>
+        <v>1274.866475399716</v>
       </c>
       <c r="U22" t="n">
-        <v>981.2353370980014</v>
+        <v>985.737836613274</v>
       </c>
       <c r="V22" t="n">
-        <v>726.5508488921146</v>
+        <v>985.737836613274</v>
       </c>
       <c r="W22" t="n">
-        <v>726.5508488921146</v>
+        <v>985.737836613274</v>
       </c>
       <c r="X22" t="n">
-        <v>726.5508488921146</v>
+        <v>985.737836613274</v>
       </c>
       <c r="Y22" t="n">
-        <v>505.7582697485844</v>
+        <v>985.737836613274</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6169,25 +6169,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,16 +6379,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,22 +6452,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,13 +6485,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,64 +6686,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,16 +7096,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7418,40 +7418,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,13 +7810,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>306.114737013995</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>274.3657496970643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>26.04283751018266</v>
       </c>
       <c r="H2" t="n">
-        <v>191.8371714957875</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.400958816911467</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.8826719008585</v>
+        <v>42.73273714785984</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>25.5367028295599</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.08891645606019</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26435568339974</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>206.7631436983566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.7026162555774</v>
       </c>
       <c r="S22" t="n">
-        <v>81.61839066067101</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262555</v>
+        <v>58099.54682262556</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.35896065627</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.1327398213</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="M2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963056</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121444.2179016484</v>
+        <v>121444.2179016483</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007566</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007525</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732791</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736171.6283569767</v>
+        <v>-736287.5812208833</v>
       </c>
       <c r="C6" t="n">
         <v>-169197.994039509</v>
       </c>
       <c r="D6" t="n">
-        <v>-169197.994039509</v>
+        <v>-169197.9940395091</v>
       </c>
       <c r="E6" t="n">
-        <v>-566409.7351209639</v>
+        <v>-566507.1942469361</v>
       </c>
       <c r="F6" t="n">
-        <v>-41249.69864406784</v>
+        <v>-41347.15777004005</v>
       </c>
       <c r="G6" t="n">
-        <v>-41249.6986440678</v>
+        <v>-41347.15777003997</v>
       </c>
       <c r="H6" t="n">
-        <v>-41249.69864406784</v>
+        <v>-41347.15777003995</v>
       </c>
       <c r="I6" t="n">
-        <v>-41249.69864406784</v>
+        <v>-41347.15777003997</v>
       </c>
       <c r="J6" t="n">
-        <v>-297401.2232738376</v>
+        <v>-297401.2232738377</v>
       </c>
       <c r="K6" t="n">
-        <v>-66472.49197753212</v>
+        <v>-66472.49197753207</v>
       </c>
       <c r="L6" t="n">
-        <v>-66472.49197753212</v>
+        <v>-66472.49197753204</v>
       </c>
       <c r="M6" t="n">
-        <v>-201273.5072113693</v>
+        <v>-201273.5072113692</v>
       </c>
       <c r="N6" t="n">
-        <v>-66472.49197753209</v>
+        <v>-66472.49197753207</v>
       </c>
       <c r="O6" t="n">
         <v>-120978.0040812447</v>
       </c>
       <c r="P6" t="n">
-        <v>-66472.49197753212</v>
+        <v>-66472.49197753209</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>243.1063941326335</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>154.7699300248837</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.1597813991315</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>165.1936239818554</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.8469783349109</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>155.313398058389</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.9503605199193</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>251.1048693719573</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.9515431889004</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>261.5644506172808</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>75.47001355005823</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>84.89255534963854</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,31 +33348,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700194</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>481.459164628589</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,16 +36996,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192542</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
